--- a/10evluate/评价标准.xlsx
+++ b/10evluate/评价标准.xlsx
@@ -4,28 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23317" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
-    <sheet name="地下水水质标准" sheetId="2" r:id="rId2"/>
-    <sheet name="地表水水质标准" sheetId="1" r:id="rId3"/>
+    <sheet name="测试" sheetId="4" r:id="rId2"/>
+    <sheet name="地下水水质标准" sheetId="2" r:id="rId3"/>
+    <sheet name="地表水水质标准" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Database">#REF!</definedName>
-    <definedName name="Database" localSheetId="1">#REF!</definedName>
+    <definedName name="Database" localSheetId="2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
   <si>
     <t>index</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t>地下水水质评价</t>
@@ -3364,13 +3368,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
@@ -3385,7 +3389,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3393,10 +3397,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3408,50 +3420,102 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="3"/>
-    <col min="2" max="2" width="21.4416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5583333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5583333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.8833333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.4416666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="16380" width="8.88333333333333" style="3"/>
+    <col min="1" max="1" width="8.88495575221239" style="3"/>
+    <col min="2" max="2" width="21.4424778761062" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5575221238938" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.3362831858407" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5575221238938" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.8849557522124" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.4424778761062" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6637168141593" style="3" customWidth="1"/>
+    <col min="9" max="16380" width="8.88495575221239" style="3"/>
     <col min="16381" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3459,25 +3523,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3485,22 +3549,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="18"/>
     </row>
@@ -3509,25 +3573,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3535,22 +3599,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -3559,22 +3623,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="19"/>
       <c r="J6" s="26"/>
@@ -3584,25 +3648,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3610,25 +3674,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3636,25 +3700,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3662,25 +3726,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3688,25 +3752,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3714,25 +3778,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:10">
@@ -3740,25 +3804,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" s="27"/>
     </row>
@@ -3767,25 +3831,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3793,25 +3857,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3819,25 +3883,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3845,25 +3909,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3871,25 +3935,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3897,25 +3961,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3923,25 +3987,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3949,25 +4013,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3975,25 +4039,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4001,25 +4065,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4027,25 +4091,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4053,25 +4117,25 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4079,25 +4143,25 @@
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4105,25 +4169,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4131,25 +4195,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:8">
@@ -4157,25 +4221,25 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
@@ -4183,25 +4247,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
@@ -4209,25 +4273,25 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
@@ -4235,25 +4299,25 @@
         <v>32</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
@@ -4261,25 +4325,25 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I33" s="28"/>
     </row>
@@ -4290,7 +4354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H23"/>
@@ -4301,42 +4365,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="3"/>
-    <col min="2" max="2" width="21.4416666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5583333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5583333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.8833333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.4416666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="16379" width="8.88333333333333" style="3"/>
+    <col min="1" max="1" width="8.88495575221239" style="3"/>
+    <col min="2" max="2" width="21.4424778761062" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5575221238938" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.3362831858407" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5575221238938" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.8849557522124" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.4424778761062" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6637168141593" style="3" customWidth="1"/>
+    <col min="9" max="16379" width="8.88495575221239" style="3"/>
     <col min="16380" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4344,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8">
         <v>0.15</v>
@@ -4362,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4370,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8">
         <v>0.3</v>
@@ -4388,7 +4452,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4396,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="8">
         <v>250</v>
@@ -4414,7 +4478,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4422,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8">
         <v>250</v>
@@ -4440,7 +4504,7 @@
         <v>250</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4448,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="8">
         <v>10</v>
@@ -4466,7 +4530,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4474,7 +4538,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -4492,7 +4556,7 @@
         <v>1.5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4500,7 +4564,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8">
         <v>15</v>
@@ -4518,7 +4582,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4526,22 +4590,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -4550,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8">
         <v>0.001</v>
@@ -4568,7 +4632,7 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4576,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="8">
         <v>0.01</v>
@@ -4594,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4602,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8">
         <v>0.1</v>
@@ -4620,7 +4684,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4628,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="8">
         <v>0.01</v>
@@ -4646,7 +4710,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4654,7 +4718,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="14">
         <v>0.05</v>
@@ -4672,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
@@ -4680,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="15">
         <v>5e-5</v>
@@ -4698,7 +4762,7 @@
         <v>0.001</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
@@ -4706,7 +4770,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="15">
         <v>0.05</v>
@@ -4724,7 +4788,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
@@ -4732,7 +4796,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="15">
         <v>0.01</v>
@@ -4750,7 +4814,7 @@
         <v>0.02</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:8">
@@ -4758,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="16">
         <v>0.2</v>
@@ -4776,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
@@ -4784,7 +4848,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="15">
         <v>0.02</v>
@@ -4802,7 +4866,7 @@
         <v>0.4</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
@@ -4810,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="15">
         <v>0.02</v>
@@ -4828,7 +4892,7 @@
         <v>0.02</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
@@ -4836,7 +4900,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" s="15">
         <v>0.5</v>
@@ -4854,7 +4918,7 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
@@ -4862,7 +4926,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C22" s="15">
         <v>0.1</v>
@@ -4880,7 +4944,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
@@ -4888,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="15">
         <v>0.7</v>
@@ -4906,7 +4970,7 @@
         <v>0.7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/10evluate/评价标准.xlsx
+++ b/10evluate/评价标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23317" windowHeight="11280" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="201">
   <si>
     <t>index</t>
   </si>
@@ -134,6 +134,9 @@
     </r>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2066,6 +2069,230 @@
       </rPr>
       <t>0.001</t>
     </r>
+  </si>
+  <si>
+    <t>挥发性酚类</t>
+  </si>
+  <si>
+    <t>≤0.001</t>
+  </si>
+  <si>
+    <t>≤0.002</t>
+  </si>
+  <si>
+    <t>≤0.01</t>
+  </si>
+  <si>
+    <t>&gt;0.01</t>
+  </si>
+  <si>
+    <t>阴离子合成洗涤剂</t>
+  </si>
+  <si>
+    <t>不得检出</t>
+  </si>
+  <si>
+    <t>≤0.1</t>
+  </si>
+  <si>
+    <t>≤0.3</t>
+  </si>
+  <si>
+    <t>&gt;0.3</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>≤0.005</t>
+  </si>
+  <si>
+    <t>≤0.02</t>
+  </si>
+  <si>
+    <t>＞0.1</t>
+  </si>
+  <si>
+    <t>硫化物</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>≤0.04</t>
+  </si>
+  <si>
+    <t>≤0.08</t>
+  </si>
+  <si>
+    <t>≤0.5</t>
+  </si>
+  <si>
+    <t>＞0.5</t>
+  </si>
+  <si>
+    <t>mg／L</t>
+  </si>
+  <si>
+    <t>碘</t>
+  </si>
+  <si>
+    <t>三氯甲烷</t>
+  </si>
+  <si>
+    <t>≤6</t>
+  </si>
+  <si>
+    <t>≤60</t>
+  </si>
+  <si>
+    <t>≤300</t>
+  </si>
+  <si>
+    <t>＞300</t>
+  </si>
+  <si>
+    <t>μg/L</t>
+  </si>
+  <si>
+    <t>四氯化碳</t>
+  </si>
+  <si>
+    <t>≤2.0</t>
+  </si>
+  <si>
+    <t>≤50.0</t>
+  </si>
+  <si>
+    <t>＞50.0</t>
+  </si>
+  <si>
+    <t>苯</t>
+  </si>
+  <si>
+    <t>≤1.0</t>
+  </si>
+  <si>
+    <t>≤10.0</t>
+  </si>
+  <si>
+    <t>≤120.0</t>
+  </si>
+  <si>
+    <t>＞120</t>
+  </si>
+  <si>
+    <t>甲苯</t>
+  </si>
+  <si>
+    <t>≤140</t>
+  </si>
+  <si>
+    <t>≤700.0</t>
+  </si>
+  <si>
+    <t>≤1400.0</t>
+  </si>
+  <si>
+    <t>＞1400</t>
+  </si>
+  <si>
+    <r>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射性</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;0.5</t>
+  </si>
+  <si>
+    <t>Bq/L</t>
+  </si>
+  <si>
+    <r>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射性</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;1.0</t>
+  </si>
+  <si>
+    <t>总大肠菌群</t>
+  </si>
+  <si>
+    <t>≤3.0</t>
+  </si>
+  <si>
+    <t>≤100</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <r>
+      <t>MPNb/100ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CFUc/100ml</t>
+    </r>
+  </si>
+  <si>
+    <t>菌落总数</t>
+  </si>
+  <si>
+    <t>≤1000</t>
+  </si>
+  <si>
+    <t>&gt;1000</t>
+  </si>
+  <si>
+    <t>CFU/mL</t>
   </si>
   <si>
     <r>
@@ -2218,7 +2445,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2267,6 +2494,17 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2448,12 +2686,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="黑体"/>
       <charset val="134"/>
@@ -2466,6 +2698,11 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2827,10 +3064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2839,37 +3076,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2878,98 +3109,104 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3038,6 +3275,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,7 +3665,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3472,27 +3715,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88495575221239" style="3"/>
-    <col min="2" max="2" width="21.4424778761062" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5575221238938" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3362831858407" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5575221238938" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.8849557522124" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.4424778761062" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6637168141593" style="3" customWidth="1"/>
-    <col min="9" max="16380" width="8.88495575221239" style="3"/>
+    <col min="1" max="1" width="8.88333333333333" style="3"/>
+    <col min="2" max="2" width="21.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5583333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.4416666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="3" customWidth="1"/>
+    <col min="10" max="16380" width="8.88333333333333" style="3"/>
     <col min="16381" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3516,6 +3760,9 @@
       </c>
       <c r="H1" s="17" t="s">
         <v>12</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3523,25 +3770,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3549,22 +3796,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="18"/>
     </row>
@@ -3573,25 +3820,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3599,22 +3846,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -3623,50 +3870,50 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3674,25 +3921,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3700,25 +3947,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3726,25 +3973,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3752,25 +3999,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3778,25 +4025,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:10">
@@ -3804,52 +4051,52 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3857,25 +4104,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3883,25 +4130,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3909,25 +4156,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3935,25 +4182,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3961,25 +4208,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3987,25 +4234,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4013,25 +4260,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4039,25 +4286,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4065,25 +4312,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4091,25 +4338,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4117,25 +4364,25 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4143,25 +4390,25 @@
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4169,25 +4416,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4195,25 +4442,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:8">
@@ -4221,25 +4468,25 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
@@ -4247,25 +4494,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
@@ -4273,25 +4520,25 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
@@ -4299,25 +4546,25 @@
         <v>32</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
@@ -4325,27 +4572,348 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="26">
+        <v>15</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="26">
+        <v>16</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="26">
+        <v>19</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="26">
+        <v>25</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="26">
+        <v>32</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="26">
+        <v>33</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="26">
+        <v>34</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="26">
+        <v>35</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="26">
+        <v>36</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="26">
+        <v>37</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="26">
         <v>38</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="B44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="26">
+        <v>39</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="8:8">
+      <c r="H46" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4365,15 +4933,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.88495575221239" style="3"/>
-    <col min="2" max="2" width="21.4424778761062" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5575221238938" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3362831858407" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5575221238938" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.8849557522124" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.4424778761062" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6637168141593" style="3" customWidth="1"/>
-    <col min="9" max="16379" width="8.88495575221239" style="3"/>
+    <col min="1" max="1" width="8.88333333333333" style="3"/>
+    <col min="2" max="2" width="21.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5583333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.4416666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="16379" width="8.88333333333333" style="3"/>
     <col min="16380" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4408,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8">
         <v>0.15</v>
@@ -4426,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4434,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8">
         <v>0.3</v>
@@ -4452,7 +5020,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4460,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C4" s="8">
         <v>250</v>
@@ -4478,7 +5046,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4486,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
         <v>250</v>
@@ -4504,7 +5072,7 @@
         <v>250</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4512,7 +5080,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C6" s="8">
         <v>10</v>
@@ -4530,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4538,7 +5106,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -4556,7 +5124,7 @@
         <v>1.5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4564,7 +5132,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="C8" s="8">
         <v>15</v>
@@ -4582,7 +5150,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4590,22 +5158,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -4614,7 +5182,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="8">
         <v>0.001</v>
@@ -4632,7 +5200,7 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4640,7 +5208,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="8">
         <v>0.01</v>
@@ -4658,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4666,7 +5234,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8">
         <v>0.1</v>
@@ -4684,7 +5252,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4692,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8">
         <v>0.01</v>
@@ -4710,7 +5278,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4718,7 +5286,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14">
         <v>0.05</v>
@@ -4736,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
@@ -4744,7 +5312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="15">
         <v>5e-5</v>
@@ -4762,7 +5330,7 @@
         <v>0.001</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
@@ -4770,7 +5338,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="15">
         <v>0.05</v>
@@ -4788,7 +5356,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
@@ -4796,7 +5364,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="15">
         <v>0.01</v>
@@ -4814,7 +5382,7 @@
         <v>0.02</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:8">
@@ -4822,7 +5390,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C18" s="16">
         <v>0.2</v>
@@ -4840,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
@@ -4848,7 +5416,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C19" s="15">
         <v>0.02</v>
@@ -4866,7 +5434,7 @@
         <v>0.4</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
@@ -4874,7 +5442,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="15">
         <v>0.02</v>
@@ -4892,7 +5460,7 @@
         <v>0.02</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
@@ -4900,7 +5468,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" s="15">
         <v>0.5</v>
@@ -4918,7 +5486,7 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
@@ -4926,7 +5494,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C22" s="15">
         <v>0.1</v>
@@ -4944,7 +5512,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
@@ -4952,7 +5520,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C23" s="15">
         <v>0.7</v>
@@ -4970,7 +5538,7 @@
         <v>0.7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
